--- a/test_cases/PE-16/TC-1603.xlsx
+++ b/test_cases/PE-16/TC-1603.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Santi\Desktop\Test_Cases\PE-16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\.Proyectos\TestingAplicaciones-TestUADE-TPO\test_cases\PE-16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{418714CF-2CD1-407B-AAF0-7035C14A8485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5DA8907-E94D-4350-905F-5773F959F406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
   </bookViews>
   <sheets>
     <sheet name="TC - Template" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="62">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -203,28 +203,25 @@
     <t>Low</t>
   </si>
   <si>
-    <t>1.2</t>
-  </si>
-  <si>
     <t>First Name = Maximo</t>
   </si>
   <si>
-    <t>Additional Information = (vacio)</t>
-  </si>
-  <si>
     <t>User is  created</t>
   </si>
   <si>
-    <t>Enter the dates except in one camp that is Additional Information</t>
-  </si>
-  <si>
-    <t>Verify validation from the form when a NO obligatory camp is null</t>
-  </si>
-  <si>
     <t>Mendieta Juan Ignacio</t>
   </si>
   <si>
     <t>TC-1603</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>Verify validation from the form when a NO obligatory field is null</t>
+  </si>
+  <si>
+    <t>Complete form with the test data</t>
   </si>
 </sst>
 </file>
@@ -734,6 +731,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -779,26 +779,23 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1120,8 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3CCAC7-6C0E-44CD-ADA1-CF7A0722318C}">
   <dimension ref="A1:W68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1147,86 +1144,86 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="32"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:23" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="26"/>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
     </row>
     <row r="3" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="49" t="s">
+      <c r="G3" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49" t="s">
+      <c r="H3" s="52"/>
+      <c r="I3" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49" t="s">
+      <c r="J3" s="52"/>
+      <c r="K3" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49" t="s">
+      <c r="L3" s="52"/>
+      <c r="M3" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="49"/>
+      <c r="N3" s="52"/>
     </row>
     <row r="4" spans="1:23" ht="14.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F4" s="2"/>
-      <c r="G4" s="47" t="s">
+      <c r="G4" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="48"/>
-      <c r="I4" s="47" t="s">
+      <c r="H4" s="50"/>
+      <c r="I4" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="48"/>
-      <c r="K4" s="47" t="s">
+      <c r="J4" s="50"/>
+      <c r="K4" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="48"/>
-      <c r="M4" s="47" t="s">
+      <c r="L4" s="50"/>
+      <c r="M4" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="48"/>
+      <c r="N4" s="50"/>
     </row>
     <row r="5" spans="1:23" ht="34.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
@@ -1376,7 +1373,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="3"/>
@@ -1449,22 +1446,22 @@
         <v>42</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="50" t="s">
+      <c r="G13" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50" t="s">
+      <c r="H13" s="53"/>
+      <c r="I13" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50" t="s">
+      <c r="J13" s="53"/>
+      <c r="K13" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50" t="s">
+      <c r="L13" s="53"/>
+      <c r="M13" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="N13" s="50"/>
+      <c r="N13" s="53"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="29"/>
@@ -1476,14 +1473,14 @@
         <v>43</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="29"/>
@@ -1495,14 +1492,14 @@
         <v>44</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="29"/>
@@ -1514,14 +1511,14 @@
         <v>45</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="29"/>
@@ -1533,14 +1530,14 @@
         <v>46</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="29"/>
@@ -1552,14 +1549,14 @@
         <v>47</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="29"/>
@@ -1590,19 +1587,12 @@
         <v>14</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="1"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="29"/>
       <c r="B22" s="1"/>
-      <c r="D22" s="4">
-        <v>15</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -1612,23 +1602,23 @@
     </row>
     <row r="24" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="36"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="42"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="43"/>
     </row>
     <row r="27" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
@@ -1650,14 +1640,14 @@
       <c r="A29" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="43" t="s">
+      <c r="B29" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="44"/>
-      <c r="D29" s="45" t="s">
+      <c r="C29" s="45"/>
+      <c r="D29" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="46"/>
+      <c r="E29" s="47"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
@@ -1677,7 +1667,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C31" s="31"/>
       <c r="D31" s="30" t="s">
@@ -1694,7 +1684,7 @@
       </c>
       <c r="C32" s="31"/>
       <c r="D32" s="30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E32" s="31"/>
     </row>
@@ -1731,6 +1721,7 @@
     <row r="68" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="G18:H18"/>
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="I14:J14"/>
@@ -1738,11 +1729,6 @@
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
     <mergeCell ref="M18:N18"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="K13:L13"/>
@@ -1764,6 +1750,10 @@
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="A25:A26"/>

--- a/test_cases/PE-16/TC-1603.xlsx
+++ b/test_cases/PE-16/TC-1603.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\.Proyectos\TestingAplicaciones-TestUADE-TPO\test_cases\PE-16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Descargas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5DA8907-E94D-4350-905F-5773F959F406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC68A2A-E484-4825-AD7A-003D63F87284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
   </bookViews>
   <sheets>
     <sheet name="TC - Template" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -140,9 +138,6 @@
     <t>Click Submit</t>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
     <t>Defects Created</t>
   </si>
   <si>
@@ -222,6 +217,9 @@
   </si>
   <si>
     <t>Complete form with the test data</t>
+  </si>
+  <si>
+    <t>Indurain Moneo Ignacio</t>
   </si>
 </sst>
 </file>
@@ -636,7 +634,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -713,9 +711,6 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -725,6 +720,72 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -732,70 +793,10 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1117,120 +1118,123 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3CCAC7-6C0E-44CD-ADA1-CF7A0722318C}">
   <dimension ref="A1:W68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38.42578125" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29.42578125" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.44140625" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.44140625" customWidth="1"/>
+    <col min="13" max="13" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="33"/>
-    </row>
-    <row r="2" spans="1:23" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="36"/>
+    </row>
+    <row r="2" spans="1:23" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="G2" s="48" t="s">
+      <c r="D2" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="54"/>
+      <c r="G2" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-    </row>
-    <row r="3" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+    </row>
+    <row r="3" spans="1:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="35"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="52" t="s">
+      <c r="G3" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52" t="s">
+      <c r="H3" s="30"/>
+      <c r="I3" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52" t="s">
+      <c r="J3" s="30"/>
+      <c r="K3" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52" t="s">
+      <c r="L3" s="30"/>
+      <c r="M3" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="52"/>
-    </row>
-    <row r="4" spans="1:23" ht="14.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N3" s="30"/>
+    </row>
+    <row r="4" spans="1:23" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F4" s="2"/>
-      <c r="G4" s="49" t="s">
+      <c r="G4" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="50"/>
-      <c r="I4" s="49" t="s">
+      <c r="H4" s="34"/>
+      <c r="I4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="50"/>
-      <c r="K4" s="49" t="s">
+      <c r="J4" s="34"/>
+      <c r="K4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="50"/>
-      <c r="M4" s="49" t="s">
+      <c r="L4" s="34"/>
+      <c r="M4" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="50"/>
-    </row>
-    <row r="5" spans="1:23" ht="34.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+      <c r="N4" s="34"/>
+    </row>
+    <row r="5" spans="1:23" ht="28.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>54</v>
+      <c r="B5" s="26" t="s">
+        <v>53</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1266,31 +1270,27 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G6" s="15" t="s">
         <v>30</v>
       </c>
       <c r="H6" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="15" t="s">
-        <v>30</v>
-      </c>
+      <c r="I6" s="15"/>
       <c r="J6" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>30</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="K6" s="15"/>
       <c r="L6" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M6" s="15"/>
       <c r="N6" s="16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>7</v>
       </c>
@@ -1309,24 +1309,20 @@
       <c r="H7" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="15" t="s">
-        <v>30</v>
-      </c>
+      <c r="I7" s="15"/>
       <c r="J7" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>30</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="K7" s="15"/>
       <c r="L7" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M7" s="15"/>
       <c r="N7" s="16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>1</v>
       </c>
@@ -1337,7 +1333,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>30</v>
@@ -1345,35 +1341,31 @@
       <c r="H8" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="15" t="s">
-        <v>30</v>
-      </c>
+      <c r="I8" s="15"/>
       <c r="J8" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>30</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="K8" s="15"/>
       <c r="L8" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M8" s="15"/>
       <c r="N8" s="16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="4">
         <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="3"/>
@@ -1384,18 +1376,18 @@
       <c r="M9" s="5"/>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" s="4">
         <v>3</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="3"/>
@@ -1406,14 +1398,14 @@
       <c r="M10" s="5"/>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" s="28"/>
       <c r="B11" s="1"/>
       <c r="D11" s="4">
         <v>4</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="5"/>
@@ -1425,207 +1417,207 @@
       <c r="M11" s="5"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" s="28"/>
       <c r="B12" s="1"/>
       <c r="D12" s="4">
         <v>5</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13" s="28"/>
       <c r="B13" s="1"/>
       <c r="D13" s="4">
         <v>6</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="N13" s="53"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
+      <c r="G13" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="N13" s="31"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" s="28"/>
       <c r="B14" s="1"/>
       <c r="D14" s="4">
         <v>7</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" s="28"/>
       <c r="B15" s="1"/>
       <c r="D15" s="4">
         <v>8</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16" s="28"/>
       <c r="B16" s="1"/>
       <c r="D16" s="4">
         <v>9</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="28"/>
       <c r="B17" s="1"/>
       <c r="D17" s="4">
         <v>10</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="28"/>
       <c r="B18" s="1"/>
       <c r="D18" s="4">
         <v>11</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="28"/>
       <c r="B19" s="1"/>
       <c r="D19" s="4">
         <v>12</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="28"/>
       <c r="B20" s="1"/>
       <c r="D20" s="4">
         <v>13</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="28"/>
       <c r="B21" s="1"/>
       <c r="D21" s="4">
         <v>14</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="28"/>
       <c r="B22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="28"/>
       <c r="B23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="36" t="s">
+    <row r="24" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="40"/>
+      <c r="B25" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="43"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="43"/>
-    </row>
-    <row r="27" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="40"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="46"/>
+    </row>
+    <row r="27" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A27" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" s="23"/>
       <c r="D27" s="21" t="s">
@@ -1635,111 +1627,111 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="45"/>
-      <c r="D29" s="46" t="s">
+      <c r="C29" s="48"/>
+      <c r="D29" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="47"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E29" s="50"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="17">
         <v>1</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="30" t="s">
+      <c r="C30" s="52"/>
+      <c r="D30" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="31"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E30" s="52"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="17">
         <v>2</v>
       </c>
-      <c r="B31" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="31"/>
-      <c r="D31" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E31" s="31"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="52"/>
+      <c r="D31" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="52"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="17">
         <v>3</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="31"/>
-      <c r="D32" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="E32" s="31"/>
-    </row>
-    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="52"/>
+      <c r="D32" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="52"/>
+    </row>
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="17">
         <v>4</v>
       </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="31"/>
-    </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="51"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="52"/>
+    </row>
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="31"/>
-    </row>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="51"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="52"/>
+    </row>
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="17"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="31"/>
-    </row>
-    <row r="38" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="52"/>
+    </row>
+    <row r="38" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
+  <mergeCells count="52">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:E26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D2:E2"/>
     <mergeCell ref="G2:N2"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
@@ -1754,24 +1746,25 @@
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="G17:H17"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:E26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1779,21 +1772,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100F6A5A8B846BB61408BAC96912A48B9A8" ma:contentTypeVersion="2" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="e2efab9668351af1ee38b12b0ffd9ede">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2835a775-56e5-473e-93b2-b8b6176d193a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2647aa4c78d06f7c1205c6a6e1c2c79d" ns2:_="">
     <xsd:import namespace="2835a775-56e5-473e-93b2-b8b6176d193a"/>
@@ -1925,24 +1903,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86567253-966F-4F1D-B2AE-0608F592F601}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD417DE-AE4D-4310-B006-24C26EFB9650}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A3F87F2-577F-4B65-8FEE-A540B5E93770}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1958,4 +1934,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD417DE-AE4D-4310-B006-24C26EFB9650}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86567253-966F-4F1D-B2AE-0608F592F601}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/test_cases/PE-16/TC-1603.xlsx
+++ b/test_cases/PE-16/TC-1603.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Descargas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC68A2A-E484-4825-AD7A-003D63F87284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE23604-C34D-4603-A26E-ED3D1B5474DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
   </bookViews>
@@ -96,9 +96,6 @@
     <t>Regression 4</t>
   </si>
   <si>
-    <t>Tester: Sam Peters</t>
-  </si>
-  <si>
     <t>Tester: Jane Williams</t>
   </si>
   <si>
@@ -220,6 +217,9 @@
   </si>
   <si>
     <t>Indurain Moneo Ignacio</t>
+  </si>
+  <si>
+    <t>Tester: Indurain Moneo Ignacio</t>
   </si>
 </sst>
 </file>
@@ -1119,7 +1119,7 @@
   <dimension ref="A1:W68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1145,13 +1145,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E1" s="36"/>
     </row>
@@ -1160,13 +1160,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E2" s="54"/>
       <c r="G2" s="32" t="s">
@@ -1190,7 +1190,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="30" t="s">
@@ -1213,19 +1213,19 @@
     <row r="4" spans="1:23" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F4" s="2"/>
       <c r="G4" s="33" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="H4" s="34"/>
       <c r="I4" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J4" s="34"/>
       <c r="K4" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L4" s="34"/>
       <c r="M4" s="33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N4" s="34"/>
     </row>
@@ -1234,35 +1234,35 @@
         <v>6</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="13" t="s">
-        <v>27</v>
-      </c>
       <c r="I5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="13" t="s">
-        <v>27</v>
-      </c>
       <c r="K5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="13" t="s">
-        <v>27</v>
-      </c>
       <c r="M5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="13" t="s">
         <v>26</v>
-      </c>
-      <c r="N5" s="13" t="s">
-        <v>27</v>
       </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
@@ -1272,22 +1272,22 @@
     </row>
     <row r="6" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="16" t="s">
         <v>30</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>31</v>
       </c>
       <c r="I6" s="15"/>
       <c r="J6" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K6" s="15"/>
       <c r="L6" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M6" s="15"/>
       <c r="N6" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
@@ -1304,22 +1304,22 @@
         <v>9</v>
       </c>
       <c r="G7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="16" t="s">
         <v>30</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>31</v>
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K7" s="15"/>
       <c r="L7" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M7" s="15"/>
       <c r="N7" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1333,25 +1333,25 @@
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="16" t="s">
         <v>30</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>31</v>
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K8" s="15"/>
       <c r="L8" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M8" s="15"/>
       <c r="N8" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -1359,13 +1359,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="4">
         <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="3"/>
@@ -1381,13 +1381,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" s="4">
         <v>3</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="3"/>
@@ -1405,7 +1405,7 @@
         <v>4</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="5"/>
@@ -1424,7 +1424,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12" s="1"/>
     </row>
@@ -1435,23 +1435,23 @@
         <v>6</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H13" s="31"/>
       <c r="I13" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J13" s="31"/>
       <c r="K13" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L13" s="31"/>
       <c r="M13" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N13" s="31"/>
     </row>
@@ -1462,7 +1462,7 @@
         <v>7</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="29"/>
@@ -1481,7 +1481,7 @@
         <v>8</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="29"/>
@@ -1500,7 +1500,7 @@
         <v>9</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="29"/>
@@ -1519,7 +1519,7 @@
         <v>10</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="29"/>
@@ -1538,7 +1538,7 @@
         <v>11</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="29"/>
@@ -1557,7 +1557,7 @@
         <v>12</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F19" s="1"/>
     </row>
@@ -1568,7 +1568,7 @@
         <v>13</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F20" s="1"/>
     </row>
@@ -1579,7 +1579,7 @@
         <v>14</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
@@ -1598,7 +1598,7 @@
         <v>11</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C25" s="42"/>
       <c r="D25" s="42"/>
@@ -1617,7 +1617,7 @@
         <v>13</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27" s="23"/>
       <c r="D27" s="21" t="s">
@@ -1630,14 +1630,14 @@
     <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="47" t="s">
         <v>23</v>
-      </c>
-      <c r="B29" s="47" t="s">
-        <v>24</v>
       </c>
       <c r="C29" s="48"/>
       <c r="D29" s="49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E29" s="50"/>
     </row>
@@ -1646,11 +1646,11 @@
         <v>1</v>
       </c>
       <c r="B30" s="51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="52"/>
       <c r="D30" s="51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E30" s="52"/>
     </row>
@@ -1659,11 +1659,11 @@
         <v>2</v>
       </c>
       <c r="B31" s="51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31" s="52"/>
       <c r="D31" s="51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E31" s="52"/>
     </row>
@@ -1672,11 +1672,11 @@
         <v>3</v>
       </c>
       <c r="B32" s="51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C32" s="52"/>
       <c r="D32" s="51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E32" s="52"/>
     </row>

--- a/test_cases/PE-16/TC-1603.xlsx
+++ b/test_cases/PE-16/TC-1603.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Descargas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE23604-C34D-4603-A26E-ED3D1B5474DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A484B827-7807-4C0C-BE71-BAB83651DBB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
   </bookViews>
   <sheets>
     <sheet name="TC - Template" sheetId="1" r:id="rId1"/>
+    <sheet name="Defect Report - Template" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="72">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -220,13 +221,43 @@
   </si>
   <si>
     <t>Tester: Indurain Moneo Ignacio</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Description / Overview</t>
+  </si>
+  <si>
+    <t>Reproduction Steps</t>
+  </si>
+  <si>
+    <t>Expected Behavior</t>
+  </si>
+  <si>
+    <t>Actual Behavior</t>
+  </si>
+  <si>
+    <t>Incidence / Severity / Probability of reproduction</t>
+  </si>
+  <si>
+    <t>Story and Acceptance Criteria affected</t>
+  </si>
+  <si>
+    <t>Browsers tested</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,8 +360,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -352,8 +398,14 @@
         <fgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -626,6 +678,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -634,7 +745,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -797,6 +908,39 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1118,8 +1262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3CCAC7-6C0E-44CD-ADA1-CF7A0722318C}">
   <dimension ref="A1:W68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1768,6 +1912,137 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FDB0BEC-3DCC-40E4-9A1E-5BFC2405135F}">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="2" max="2" width="64.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="56"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="58"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="57"/>
+      <c r="B4" s="57"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="60"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="61"/>
+      <c r="B6" s="62"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="63"/>
+      <c r="B7" s="64"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="57"/>
+      <c r="B8" s="57"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="66"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="57"/>
+      <c r="B10" s="57"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="66"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="57"/>
+      <c r="B12" s="57"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="60"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="63"/>
+      <c r="B14" s="64"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="57"/>
+      <c r="B15" s="57"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="67"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="57"/>
+      <c r="B17" s="57"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="66"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="57"/>
+      <c r="B19" s="57"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="66"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="57"/>
+      <c r="B21" s="57"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="69"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="71"/>
+      <c r="B23" s="70"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/test_cases/PE-16/TC-1603.xlsx
+++ b/test_cases/PE-16/TC-1603.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Descargas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A484B827-7807-4C0C-BE71-BAB83651DBB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0849BD-CBE1-478A-9AC4-1A9B0C77E3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
   </bookViews>
   <sheets>
     <sheet name="TC - Template" sheetId="1" r:id="rId1"/>
@@ -118,9 +118,6 @@
     <t>Pass / Fail / Not executed / Suspended</t>
   </si>
   <si>
-    <t>Navigate to http://demo.guru99.com</t>
-  </si>
-  <si>
     <t>Site should open</t>
   </si>
   <si>
@@ -190,9 +187,6 @@
     <t>Form is not completed</t>
   </si>
   <si>
-    <t>Probar si el usuario no ingresa algun dato en un campo NO obligatorio</t>
-  </si>
-  <si>
     <t>Low</t>
   </si>
   <si>
@@ -251,6 +245,12 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>Navigate to http://127.0.0.1:5000</t>
+  </si>
+  <si>
+    <t>Test if the user does not enter any data in a non-mandatory field</t>
   </si>
 </sst>
 </file>
@@ -831,84 +831,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -941,6 +863,84 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1262,8 +1262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3CCAC7-6C0E-44CD-ADA1-CF7A0722318C}">
   <dimension ref="A1:W68"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1289,96 +1289,96 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="36"/>
+      <c r="D1" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="49"/>
     </row>
     <row r="2" spans="1:23" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="53" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="54"/>
-      <c r="G2" s="32" t="s">
+      <c r="D2" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="65"/>
+      <c r="G2" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
     </row>
     <row r="3" spans="1:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="38"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30" t="s">
+      <c r="H3" s="70"/>
+      <c r="I3" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30" t="s">
+      <c r="J3" s="70"/>
+      <c r="K3" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30" t="s">
+      <c r="L3" s="70"/>
+      <c r="M3" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="30"/>
+      <c r="N3" s="70"/>
     </row>
     <row r="4" spans="1:23" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F4" s="2"/>
-      <c r="G4" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" s="34"/>
-      <c r="I4" s="33" t="s">
+      <c r="G4" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="68"/>
+      <c r="I4" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="34"/>
-      <c r="K4" s="33" t="s">
+      <c r="J4" s="68"/>
+      <c r="K4" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="34"/>
-      <c r="M4" s="33" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="34"/>
+      <c r="N4" s="68"/>
     </row>
     <row r="5" spans="1:23" ht="28.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1416,22 +1416,22 @@
     </row>
     <row r="6" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="16" t="s">
         <v>29</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>30</v>
       </c>
       <c r="I6" s="15"/>
       <c r="J6" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K6" s="15"/>
       <c r="L6" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M6" s="15"/>
       <c r="N6" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
@@ -1448,22 +1448,22 @@
         <v>9</v>
       </c>
       <c r="G7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="16" t="s">
         <v>29</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>30</v>
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K7" s="15"/>
       <c r="L7" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M7" s="15"/>
       <c r="N7" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1477,25 +1477,25 @@
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="16" t="s">
         <v>29</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>30</v>
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K8" s="15"/>
       <c r="L8" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M8" s="15"/>
       <c r="N8" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -1503,13 +1503,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="4">
         <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="3"/>
@@ -1525,13 +1525,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10" s="4">
         <v>3</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="3"/>
@@ -1549,7 +1549,7 @@
         <v>4</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="5"/>
@@ -1568,7 +1568,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" s="1"/>
     </row>
@@ -1579,25 +1579,25 @@
         <v>6</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="N13" s="31"/>
+      <c r="G13" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="N13" s="71"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="28"/>
@@ -1606,17 +1606,17 @@
         <v>7</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="69"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="28"/>
@@ -1625,17 +1625,17 @@
         <v>8</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="69"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="28"/>
@@ -1644,17 +1644,17 @@
         <v>9</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="69"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="28"/>
@@ -1663,17 +1663,17 @@
         <v>10</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="69"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="28"/>
@@ -1682,17 +1682,17 @@
         <v>11</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="28"/>
@@ -1701,7 +1701,7 @@
         <v>12</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F19" s="1"/>
     </row>
@@ -1712,7 +1712,7 @@
         <v>13</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F20" s="1"/>
     </row>
@@ -1723,7 +1723,7 @@
         <v>14</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
@@ -1738,30 +1738,30 @@
     </row>
     <row r="24" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="43"/>
+      <c r="B25" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="56"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="40"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="46"/>
+      <c r="A26" s="53"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="59"/>
     </row>
     <row r="27" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A27" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" s="23"/>
       <c r="D27" s="21" t="s">
@@ -1776,76 +1776,76 @@
       <c r="A29" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="47" t="s">
+      <c r="B29" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="48"/>
-      <c r="D29" s="49" t="s">
+      <c r="C29" s="61"/>
+      <c r="D29" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="50"/>
+      <c r="E29" s="63"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="17">
         <v>1</v>
       </c>
-      <c r="B30" s="51" t="s">
+      <c r="B30" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="47"/>
+      <c r="D30" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="52"/>
-      <c r="D30" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="E30" s="52"/>
+      <c r="E30" s="47"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="17">
         <v>2</v>
       </c>
-      <c r="B31" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="52"/>
-      <c r="D31" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="E31" s="52"/>
+      <c r="B31" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="47"/>
+      <c r="D31" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="47"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="17">
         <v>3</v>
       </c>
-      <c r="B32" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="52"/>
-      <c r="D32" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="E32" s="52"/>
+      <c r="B32" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="47"/>
+      <c r="D32" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="47"/>
     </row>
     <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="17">
         <v>4</v>
       </c>
-      <c r="B33" s="51"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="52"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="47"/>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
-      <c r="B34" s="51"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="52"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="47"/>
     </row>
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="17"/>
-      <c r="B35" s="51"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="52"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="47"/>
     </row>
     <row r="38" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1857,25 +1857,25 @@
     <row r="68" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:E26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
     <mergeCell ref="G2:N2"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
@@ -1890,25 +1890,25 @@
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="G17:H17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:E26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1919,7 +1919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FDB0BEC-3DCC-40E4-9A1E-5BFC2405135F}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -1930,116 +1930,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="30"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="32"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="56"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="55" t="s">
+      <c r="B5" s="34"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="35"/>
+      <c r="B6" s="36"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="37"/>
+      <c r="B7" s="38"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="58"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="57"/>
-      <c r="B4" s="57"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="59" t="s">
+      <c r="B9" s="40"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="60"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="61"/>
-      <c r="B6" s="62"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="63"/>
-      <c r="B7" s="64"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="57"/>
-      <c r="B8" s="57"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="65" t="s">
+      <c r="B11" s="40"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="66"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="57"/>
-      <c r="B10" s="57"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="65" t="s">
+      <c r="B13" s="34"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="37"/>
+      <c r="B14" s="38"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="66"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="57"/>
-      <c r="B12" s="57"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="59" t="s">
+      <c r="B16" s="41"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="60"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="63"/>
-      <c r="B14" s="64"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="57"/>
-      <c r="B15" s="57"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="65" t="s">
+      <c r="B18" s="40"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="67"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="57"/>
-      <c r="B17" s="57"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="65" t="s">
+      <c r="B20" s="40"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="66"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="57"/>
-      <c r="B19" s="57"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" s="66"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="57"/>
-      <c r="B21" s="57"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="68" t="s">
-        <v>71</v>
-      </c>
-      <c r="B22" s="69"/>
+      <c r="B22" s="43"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="71"/>
-      <c r="B23" s="70"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2047,6 +2047,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100F6A5A8B846BB61408BAC96912A48B9A8" ma:contentTypeVersion="2" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="e2efab9668351af1ee38b12b0ffd9ede">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2835a775-56e5-473e-93b2-b8b6176d193a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2647aa4c78d06f7c1205c6a6e1c2c79d" ns2:_="">
     <xsd:import namespace="2835a775-56e5-473e-93b2-b8b6176d193a"/>
@@ -2178,15 +2187,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2194,6 +2194,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD417DE-AE4D-4310-B006-24C26EFB9650}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A3F87F2-577F-4B65-8FEE-A540B5E93770}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2211,14 +2219,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD417DE-AE4D-4310-B006-24C26EFB9650}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86567253-966F-4F1D-B2AE-0608F592F601}">
   <ds:schemaRefs>

--- a/test_cases/PE-16/TC-1603.xlsx
+++ b/test_cases/PE-16/TC-1603.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Descargas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\.Proyectos\TestingAplicaciones-TestUADE-TPO\test_cases\PE-16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0849BD-CBE1-478A-9AC4-1A9B0C77E3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88430D61-9AE0-4229-92DD-D78966295AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
   </bookViews>
   <sheets>
     <sheet name="TC - Template" sheetId="1" r:id="rId1"/>
@@ -82,9 +82,6 @@
     <t>Automation Status</t>
   </si>
   <si>
-    <t>Not Automated</t>
-  </si>
-  <si>
     <t>Regression 1</t>
   </si>
   <si>
@@ -251,6 +248,9 @@
   </si>
   <si>
     <t>Test if the user does not enter any data in a non-mandatory field</t>
+  </si>
+  <si>
+    <t>Automated</t>
   </si>
 </sst>
 </file>
@@ -864,83 +864,83 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1262,151 +1262,151 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3CCAC7-6C0E-44CD-ADA1-CF7A0722318C}">
   <dimension ref="A1:W68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.109375" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.5546875" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38.44140625" customWidth="1"/>
-    <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29.44140625" customWidth="1"/>
-    <col min="13" max="13" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.42578125" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.42578125" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" s="49"/>
-    </row>
-    <row r="2" spans="1:23" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D1" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="53"/>
+    </row>
+    <row r="2" spans="1:23" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="65"/>
-      <c r="G2" s="66" t="s">
+      <c r="D2" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="69"/>
+      <c r="G2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-    </row>
-    <row r="3" spans="1:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+    </row>
+    <row r="3" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="51"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="55"/>
       <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="70" t="s">
+      <c r="G3" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70" t="s">
+      <c r="J3" s="47"/>
+      <c r="K3" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70" t="s">
+      <c r="L3" s="47"/>
+      <c r="M3" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70" t="s">
+      <c r="N3" s="47"/>
+    </row>
+    <row r="4" spans="1:23" ht="14.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="2"/>
+      <c r="G4" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="51"/>
+      <c r="I4" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="70"/>
-    </row>
-    <row r="4" spans="1:23" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F4" s="2"/>
-      <c r="G4" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" s="68"/>
-      <c r="I4" s="67" t="s">
+      <c r="J4" s="51"/>
+      <c r="K4" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="51"/>
+      <c r="M4" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="68"/>
-      <c r="K4" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="68"/>
-    </row>
-    <row r="5" spans="1:23" ht="28.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="N4" s="51"/>
+    </row>
+    <row r="5" spans="1:23" ht="34.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="13" t="s">
-        <v>26</v>
-      </c>
       <c r="I5" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="13" t="s">
-        <v>26</v>
-      </c>
       <c r="K5" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="13" t="s">
-        <v>26</v>
-      </c>
       <c r="M5" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="13" t="s">
         <v>25</v>
-      </c>
-      <c r="N5" s="13" t="s">
-        <v>26</v>
       </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
@@ -1414,27 +1414,27 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G6" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="16" t="s">
         <v>28</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>29</v>
       </c>
       <c r="I6" s="15"/>
       <c r="J6" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K6" s="15"/>
       <c r="L6" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M6" s="15"/>
       <c r="N6" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>7</v>
       </c>
@@ -1448,25 +1448,25 @@
         <v>9</v>
       </c>
       <c r="G7" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="16" t="s">
         <v>28</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>29</v>
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K7" s="15"/>
       <c r="L7" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M7" s="15"/>
       <c r="N7" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>1</v>
       </c>
@@ -1477,39 +1477,39 @@
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G8" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="16" t="s">
         <v>28</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>29</v>
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K8" s="15"/>
       <c r="L8" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M8" s="15"/>
       <c r="N8" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" s="4">
         <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="3"/>
@@ -1520,18 +1520,18 @@
       <c r="M9" s="5"/>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" s="4">
         <v>3</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="3"/>
@@ -1542,14 +1542,14 @@
       <c r="M10" s="5"/>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="28"/>
       <c r="B11" s="1"/>
       <c r="D11" s="4">
         <v>4</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="5"/>
@@ -1561,321 +1561,321 @@
       <c r="M11" s="5"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="28"/>
       <c r="B12" s="1"/>
       <c r="D12" s="4">
         <v>5</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="28"/>
       <c r="B13" s="1"/>
       <c r="D13" s="4">
         <v>6</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="71" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71" t="s">
-        <v>32</v>
-      </c>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71" t="s">
-        <v>32</v>
-      </c>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71" t="s">
-        <v>32</v>
-      </c>
-      <c r="N13" s="71"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="G13" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="N13" s="48"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="28"/>
       <c r="B14" s="1"/>
       <c r="D14" s="4">
         <v>7</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="69"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="28"/>
       <c r="B15" s="1"/>
       <c r="D15" s="4">
         <v>8</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="69"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="28"/>
       <c r="B16" s="1"/>
       <c r="D16" s="4">
         <v>9</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="69"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="28"/>
       <c r="B17" s="1"/>
       <c r="D17" s="4">
         <v>10</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="69"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="28"/>
       <c r="B18" s="1"/>
       <c r="D18" s="4">
         <v>11</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="69"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="28"/>
       <c r="B19" s="1"/>
       <c r="D19" s="4">
         <v>12</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="28"/>
       <c r="B20" s="1"/>
       <c r="D20" s="4">
         <v>13</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="28"/>
       <c r="B21" s="1"/>
       <c r="D21" s="4">
         <v>14</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="28"/>
       <c r="B22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="28"/>
       <c r="B23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="52" t="s">
+    <row r="24" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="56"/>
+      <c r="B25" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="60"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="53"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="59"/>
-    </row>
-    <row r="27" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="57"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="63"/>
+    </row>
+    <row r="27" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27" s="23"/>
       <c r="D27" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="60" t="s">
+      <c r="C29" s="65"/>
+      <c r="D29" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="61"/>
-      <c r="D29" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="63"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E29" s="67"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <v>1</v>
       </c>
-      <c r="B30" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" s="47"/>
-      <c r="D30" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="47"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B30" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="71"/>
+      <c r="D30" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="71"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
         <v>2</v>
       </c>
-      <c r="B31" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="47"/>
-      <c r="D31" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="E31" s="47"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B31" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="71"/>
+      <c r="D31" s="70" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="71"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="17">
         <v>3</v>
       </c>
-      <c r="B32" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="47"/>
-      <c r="D32" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="E32" s="47"/>
-    </row>
-    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="71"/>
+      <c r="D32" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="71"/>
+    </row>
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17">
         <v>4</v>
       </c>
-      <c r="B33" s="46"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="47"/>
-    </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="70"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="71"/>
+    </row>
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="47"/>
-    </row>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="70"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="71"/>
+    </row>
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="47"/>
-    </row>
-    <row r="38" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="B35" s="70"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="70"/>
+      <c r="E35" s="71"/>
+    </row>
+    <row r="38" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:E26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D2:E2"/>
     <mergeCell ref="G2:N2"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
@@ -1890,25 +1890,25 @@
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="G17:H17"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:E26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1923,121 +1923,121 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="64.77734375" customWidth="1"/>
+    <col min="2" max="2" width="64.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" s="30"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="31"/>
       <c r="B2" s="31"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="32"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="31"/>
       <c r="B4" s="31"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="34"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="35"/>
       <c r="B6" s="36"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="37"/>
       <c r="B7" s="38"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="31"/>
       <c r="B8" s="31"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" s="40"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="31"/>
       <c r="B10" s="31"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B11" s="40"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="31"/>
       <c r="B12" s="31"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B13" s="34"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="37"/>
       <c r="B14" s="38"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="31"/>
       <c r="B15" s="31"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" s="41"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="31"/>
       <c r="B17" s="31"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B18" s="40"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="31"/>
       <c r="B19" s="31"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B20" s="40"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="31"/>
       <c r="B21" s="31"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B22" s="43"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="45"/>
       <c r="B23" s="44"/>
     </row>
@@ -2047,12 +2047,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2188,15 +2185,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD417DE-AE4D-4310-B006-24C26EFB9650}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86567253-966F-4F1D-B2AE-0608F592F601}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2220,10 +2221,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86567253-966F-4F1D-B2AE-0608F592F601}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD417DE-AE4D-4310-B006-24C26EFB9650}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>